--- a/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Product Pricers/CapFloorPricer.xlsx
+++ b/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Product Pricers/CapFloorPricer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2017\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Product Pricers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2019\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Product Pricers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB42D5A5-2CFD-4B6D-A394-ED72AB8FF80E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410B66B6-93DE-40E9-AE57-8BD772A57D4C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="375" windowWidth="28515" windowHeight="12300" tabRatio="691" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2415" yWindow="0" windowWidth="26370" windowHeight="14820" tabRatio="691" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GetInfo &amp; GetInstrumentInfo" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,15 @@
     <definedName name="ValueResult" localSheetId="4">Config!#REF!</definedName>
     <definedName name="ValueResult">Config!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017" calcOnSave="0"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3406,7 +3414,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -3429,14 +3437,14 @@
     <row r="2" spans="1:7">
       <c r="A2" t="str">
         <f>_xll.HLV5r3.Financial.Cache.GetCurveEngineVersionInfo()</f>
-        <v>Version: FpML.V5r3 v1.0 Built on : 7/04/2018, 11:54 AM</v>
+        <v>Version: FpML.V5r3 v1.0 Built on : 26/06/2019, 9:22 AM</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>101</v>
       </c>
       <c r="D2" s="77">
         <f ca="1">TODAY()</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3487,12 +3495,12 @@
     <row r="8" spans="1:7">
       <c r="A8" s="6" t="str">
         <f t="array" ref="A8:A129">_xll.HLV5r3.Financial.Cache.ListUpTo100PricingStructures(C6:D7)</f>
-        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-ISDA-1M</v>
+        <v>Market.QR_LIVE.RateCurve.USD-LIBOR-BBA-3M</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-BBA-6M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-BBR-BBSW-1M</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>163</v>
@@ -3501,32 +3509,32 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-BBA-3M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-BBR-BBSW-3M</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-BBA-1M</v>
+        <v>Market.QR_LIVE.DiscountCurve.EUR-LIBOR-SENIOR</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-BBA-3M</v>
+        <v>Market.QR_LIVE.DiscountCurve.GBP-LIBOR-SENIOR</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-LIBOR-BBA-6M</v>
+        <v>Market.QR_LIVE.DiscountCurve.JPY-LIBOR-SENIOR</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-LIBOR-BBA-3M</v>
+        <v>Market.QR_LIVE.DiscountCurve.NZD-LIBOR-SENIOR</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-LIBOR-BBA-1M</v>
+        <v>Market.QR_LIVE.DiscountCurve.USD-LIBOR-SENIOR</v>
       </c>
       <c r="C15" t="str">
         <f t="array" ref="C15:D56">_xll.HLV5r3.Financial.Cache.GetQuotedAssetSet( C9)</f>
@@ -3537,7 +3545,7 @@
       </c>
       <c r="F15">
         <f t="array" aca="1" ref="F15:G46" ca="1">_xll.HLV5r3.Financial.Cache.GetDaysAndRates(C9,D2,D3)</f>
-        <v>-2797</v>
+        <v>-3224</v>
       </c>
       <c r="G15">
         <f ca="1"/>
@@ -3546,7 +3554,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Reuters-6M</v>
+        <v>Market.QR_LIVE.FxCurve.AUD-EUR</v>
       </c>
       <c r="C16" t="str">
         <v>AUD-Deposit-1M</v>
@@ -3556,16 +3564,16 @@
       </c>
       <c r="F16">
         <f ca="1"/>
-        <v>-2796</v>
+        <v>-3223</v>
       </c>
       <c r="G16">
         <f ca="1"/>
-        <v>-1.6093396185912212E-5</v>
+        <v>-1.3961262093964422E-5</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Reuters-3M</v>
+        <v>Market.QR_LIVE.FxCurve.AUD-GBP</v>
       </c>
       <c r="C17" t="str">
         <v>AUD-Deposit-2M</v>
@@ -3575,16 +3583,16 @@
       </c>
       <c r="F17">
         <f ca="1"/>
-        <v>-2766</v>
+        <v>-3193</v>
       </c>
       <c r="G17">
         <f ca="1"/>
-        <v>-5.1456606322908272E-4</v>
+        <v>-4.4575696025050959E-4</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Reuters-1M</v>
+        <v>Market.QR_LIVE.FxCurve.AUD-JPY</v>
       </c>
       <c r="C18" t="str">
         <v>AUD-Deposit-3M</v>
@@ -3594,16 +3602,16 @@
       </c>
       <c r="F18">
         <f ca="1"/>
-        <v>-2737</v>
+        <v>-3164</v>
       </c>
       <c r="G18">
         <f ca="1"/>
-        <v>-1.0220607916142654E-3</v>
+        <v>-8.8414305394701742E-4</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-BBR-BBSW-2M</v>
+        <v>Market.QR_LIVE.FxCurve.AUD-NZD</v>
       </c>
       <c r="C19" t="str">
         <v>AUD-BasisSwap-4Y-6M</v>
@@ -3613,16 +3621,16 @@
       </c>
       <c r="F19">
         <f ca="1"/>
-        <v>-2705</v>
+        <v>-3132</v>
       </c>
       <c r="G19">
         <f ca="1"/>
-        <v>-1.6082150186966793E-3</v>
+        <v>-1.3889977234726736E-3</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-AONIA-OIS-COMPOUND</v>
+        <v>Market.QR_LIVE.FxCurve.EUR-USD</v>
       </c>
       <c r="C20" t="str">
         <v>AUD-BasisSwap-5Y-6M</v>
@@ -3632,16 +3640,16 @@
       </c>
       <c r="F20">
         <f ca="1"/>
-        <v>-2696</v>
+        <v>-3123</v>
       </c>
       <c r="G20">
         <f ca="1"/>
-        <v>-1.7609228181827419E-3</v>
+        <v>-1.5202019916782383E-3</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="6" t="str">
-        <v>Market.QR_LIVE.FxCurve.NZD-USD</v>
+        <v>Market.QR_LIVE.FxCurve.GBP-USD</v>
       </c>
       <c r="C21" t="str">
         <v>AUD-BasisSwap-7Y-6M</v>
@@ -3651,11 +3659,11 @@
       </c>
       <c r="F21">
         <f ca="1"/>
-        <v>-2605</v>
+        <v>-3032</v>
       </c>
       <c r="G21">
         <f ca="1"/>
-        <v>-3.4468692064852924E-3</v>
+        <v>-2.961622459697999E-3</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3670,16 +3678,16 @@
       </c>
       <c r="F22">
         <f ca="1"/>
-        <v>-2514</v>
+        <v>-2941</v>
       </c>
       <c r="G22">
         <f ca="1"/>
-        <v>-5.2609684314450789E-3</v>
+        <v>-4.4975648029672577E-3</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="6" t="str">
-        <v>Market.QR_LIVE.FxCurve.GBP-USD</v>
+        <v>Market.QR_LIVE.FxCurve.NZD-USD</v>
       </c>
       <c r="C23" t="str">
         <v>AUD-BasisSwap-15Y-6M</v>
@@ -3689,16 +3697,16 @@
       </c>
       <c r="F23">
         <f ca="1"/>
-        <v>-2423</v>
+        <v>-2850</v>
       </c>
       <c r="G23">
         <f ca="1"/>
-        <v>-7.2138144128861548E-3</v>
+        <v>-6.1338369801138271E-3</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="6" t="str">
-        <v>Market.QR_LIVE.FxCurve.EUR-USD</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-AONIA-OIS-COMPOUND</v>
       </c>
       <c r="C24" t="str">
         <v>AUD-BasisSwap-20Y-6M</v>
@@ -3708,16 +3716,16 @@
       </c>
       <c r="F24">
         <f ca="1"/>
-        <v>-2332</v>
+        <v>-2759</v>
       </c>
       <c r="G24">
         <f ca="1"/>
-        <v>-9.3329372536330446E-3</v>
+        <v>-7.8899394117577515E-3</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="6" t="str">
-        <v>Market.QR_LIVE.FxCurve.AUD-NZD</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-BBR-BBSW-2M</v>
       </c>
       <c r="C25" t="str">
         <v>AUD-BasisSwap-25Y-6M</v>
@@ -3727,16 +3735,16 @@
       </c>
       <c r="F25">
         <f ca="1"/>
-        <v>-2241</v>
+        <v>-2668</v>
       </c>
       <c r="G25">
         <f ca="1"/>
-        <v>-1.1642305893083016E-2</v>
+        <v>-9.7812935210686014E-3</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="6" t="str">
-        <v>Market.QR_LIVE.FxCurve.AUD-JPY</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Reuters-1M</v>
       </c>
       <c r="C26" t="str">
         <v>AUD-BasisSwap-30Y-6M</v>
@@ -3746,16 +3754,16 @@
       </c>
       <c r="F26">
         <f ca="1"/>
-        <v>-2150</v>
+        <v>-2577</v>
       </c>
       <c r="G26">
         <f ca="1"/>
-        <v>-1.4165739972016755E-2</v>
+        <v>-1.1821998139111667E-2</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="6" t="str">
-        <v>Market.QR_LIVE.FxCurve.AUD-GBP</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Reuters-3M</v>
       </c>
       <c r="C27" t="str">
         <v>AUD-IRSwap-3Y</v>
@@ -3765,16 +3773,16 @@
       </c>
       <c r="F27">
         <f ca="1"/>
-        <v>-2059</v>
+        <v>-2486</v>
       </c>
       <c r="G27">
         <f ca="1"/>
-        <v>-1.691823604059417E-2</v>
+        <v>-1.4017426485724016E-2</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="6" t="str">
-        <v>Market.QR_LIVE.FxCurve.AUD-EUR</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Reuters-6M</v>
       </c>
       <c r="C28" t="str">
         <v>AUD-IRSwap-4Y</v>
@@ -3784,16 +3792,16 @@
       </c>
       <c r="F28">
         <f ca="1"/>
-        <v>-1701</v>
+        <v>-2128</v>
       </c>
       <c r="G28">
         <f ca="1"/>
-        <v>-3.0711197911118315E-2</v>
+        <v>-2.456772198781243E-2</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="6" t="str">
-        <v>Market.QR_LIVE.DiscountCurve.NZD-LIBOR-SENIOR</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-LIBOR-BBA-1M</v>
       </c>
       <c r="C29" t="str">
         <v>AUD-IRSwap-5Y</v>
@@ -3803,16 +3811,16 @@
       </c>
       <c r="F29">
         <f ca="1"/>
-        <v>-1337</v>
+        <v>-1764</v>
       </c>
       <c r="G29">
         <f ca="1"/>
-        <v>-5.358884032043898E-2</v>
+        <v>-4.0683166438238327E-2</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="6" t="str">
-        <v>Market.QR_LIVE.DiscountCurve.JPY-LIBOR-SENIOR</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-LIBOR-BBA-3M</v>
       </c>
       <c r="C30" t="str">
         <v>AUD-IRSwap-6Y</v>
@@ -3822,16 +3830,16 @@
       </c>
       <c r="F30">
         <f ca="1"/>
-        <v>-970</v>
+        <v>-1397</v>
       </c>
       <c r="G30">
         <f ca="1"/>
-        <v>-9.3774170684231883E-2</v>
+        <v>-6.5347324863608058E-2</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="6" t="str">
-        <v>Market.QR_LIVE.DiscountCurve.GBP-LIBOR-SENIOR</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-LIBOR-BBA-6M</v>
       </c>
       <c r="C31" t="str">
         <v>AUD-IRSwap-7Y</v>
@@ -3841,16 +3849,16 @@
       </c>
       <c r="F31">
         <f ca="1"/>
-        <v>-604</v>
+        <v>-1031</v>
       </c>
       <c r="G31">
         <f ca="1"/>
-        <v>-0.1815330943508231</v>
+        <v>-0.1073706195416877</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="6" t="str">
-        <v>Market.QR_LIVE.DiscountCurve.EUR-LIBOR-SENIOR</v>
+        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-BBA-3M</v>
       </c>
       <c r="C32" t="str">
         <v>AUD-IRSwap-8Y</v>
@@ -3860,16 +3868,16 @@
       </c>
       <c r="F32">
         <f ca="1"/>
-        <v>-239</v>
+        <v>-666</v>
       </c>
       <c r="G32">
         <f ca="1"/>
-        <v>-0.51800672162334527</v>
+        <v>-0.19420683364525448</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.USD-LIBOR-BBA-3M</v>
+        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-BBA-1M</v>
       </c>
       <c r="C33" t="str">
         <v>AUD-IRSwap-9Y</v>
@@ -3879,16 +3887,16 @@
       </c>
       <c r="F33">
         <f ca="1"/>
-        <v>126</v>
+        <v>-301</v>
       </c>
       <c r="G33">
         <f ca="1"/>
-        <v>1.4162269640071159</v>
+        <v>-0.47664674672903962</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-BBR-BBSW-1M</v>
+        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-BBA-3M</v>
       </c>
       <c r="C34" t="str">
         <v>AUD-IRSwap-10Y</v>
@@ -3898,16 +3906,16 @@
       </c>
       <c r="F34">
         <f ca="1"/>
-        <v>490</v>
+        <v>63</v>
       </c>
       <c r="G34">
         <f ca="1"/>
-        <v>0.36855811072885025</v>
+        <v>3.939236646433466</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-BBR-BBSW-3M</v>
+        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-BBA-6M</v>
       </c>
       <c r="C35" t="str">
         <v>AUD-IRSwap-15Y</v>
@@ -3917,16 +3925,16 @@
       </c>
       <c r="F35">
         <f ca="1"/>
-        <v>857</v>
+        <v>430</v>
       </c>
       <c r="G35">
         <f ca="1"/>
-        <v>0.23170903024765011</v>
+        <v>0.47508185180924212</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-ISDA-3M</v>
+        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-ISDA-1M</v>
       </c>
       <c r="C36" t="str">
         <v>AUD-IRSwap-20Y</v>
@@ -3936,16 +3944,16 @@
       </c>
       <c r="F36">
         <f ca="1"/>
-        <v>2681</v>
+        <v>2254</v>
       </c>
       <c r="G36">
         <f ca="1"/>
-        <v>0.11161652995663474</v>
+        <v>0.13310956410471952</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-ISDA-6M</v>
+        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-ISDA-3M</v>
       </c>
       <c r="C37" t="str">
         <v>AUD-IRFuture-IR-1</v>
@@ -3955,16 +3963,16 @@
       </c>
       <c r="F37">
         <f ca="1"/>
-        <v>4508</v>
+        <v>4081</v>
       </c>
       <c r="G37">
         <f ca="1"/>
-        <v>8.7301382204053368E-2</v>
+        <v>9.6545233249946349E-2</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.NZD-BBR-FRA-1M</v>
+        <v>Market.QR_LIVE.RateCurve.JPY-LIBOR-ISDA-6M</v>
       </c>
       <c r="C38" t="str">
         <v>AUD-IRFuture-IR-2</v>
@@ -3983,7 +3991,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.NZD-BBR-FRA-3M</v>
+        <v>Market.QR_LIVE.RateCurve.NZD-BBR-FRA-1M</v>
       </c>
       <c r="C39" t="str">
         <v>AUD-IRFuture-IR-3</v>
@@ -4002,7 +4010,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.NZD-BBR-FRA-6M</v>
+        <v>Market.QR_LIVE.RateCurve.NZD-BBR-FRA-3M</v>
       </c>
       <c r="C40" t="str">
         <v>AUD-IRFuture-IR-4</v>
@@ -4021,7 +4029,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.USD-LIBOR-BBA-1M</v>
+        <v>Market.QR_LIVE.RateCurve.NZD-BBR-FRA-6M</v>
       </c>
       <c r="C41" t="str">
         <v>AUD-IRFuture-IR-5</v>
@@ -4040,7 +4048,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="6" t="str">
-        <v>Market.QR_LIVE.DiscountCurve.CHF-LIBOR-SENIOR</v>
+        <v>Market.QR_LIVE.RateCurve.USD-LIBOR-BBA-1M</v>
       </c>
       <c r="C42" t="str">
         <v>AUD-IRFuture-IR-6</v>
@@ -4059,7 +4067,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.USD-LIBOR-BBA-6M</v>
+        <v>Market.QR_LIVE.DiscountCurve.CHF-LIBOR-SENIOR</v>
       </c>
       <c r="C43" t="str">
         <v>AUD-IRFuture-IR-7</v>
@@ -4078,7 +4086,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-BBA-1M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-BBR-BBSW-6M</v>
       </c>
       <c r="C44" t="str">
         <v>AUD-IRFuture-IR-8</v>
@@ -4097,7 +4105,7 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-BBA-6M</v>
+        <v>Market.QR_LIVE.FxCurve.CHF-USD</v>
       </c>
       <c r="C45" t="e">
         <v>#N/A</v>
@@ -4116,7 +4124,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-BBR-BBSW-6M</v>
+        <v>Market.QR_LIVE.RateCurve.USD-LIBOR-BBA-6M</v>
       </c>
       <c r="C46" t="e">
         <v>#N/A</v>
@@ -4135,7 +4143,7 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="6" t="str">
-        <v>Market.QR_LIVE.FxCurve.CHF-USD</v>
+        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-BBA-1M</v>
       </c>
       <c r="C47" t="e">
         <v>#N/A</v>
@@ -4146,7 +4154,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-3M</v>
+        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-BBA-6M</v>
       </c>
       <c r="C48" t="e">
         <v>#N/A</v>
@@ -4157,7 +4165,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-1M</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-3M</v>
       </c>
       <c r="C49" t="e">
         <v>#N/A</v>
@@ -4168,7 +4176,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-6M</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-1M</v>
       </c>
       <c r="C50" t="e">
         <v>#N/A</v>
@@ -4179,7 +4187,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-5Y</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-6M</v>
       </c>
       <c r="C51" t="e">
         <v>#N/A</v>
@@ -4190,7 +4198,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-10Y</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-5Y</v>
       </c>
       <c r="C52" t="e">
         <v>#N/A</v>
@@ -4201,7 +4209,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.CHF-LIBOR-BBA-1M</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-10Y</v>
       </c>
       <c r="C53" t="e">
         <v>#N/A</v>
@@ -4212,7 +4220,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.CHF-LIBOR-BBA-6M</v>
+        <v>Market.QR_LIVE.RateCurve.CHF-LIBOR-BBA-1M</v>
       </c>
       <c r="C54" t="e">
         <v>#N/A</v>
@@ -4223,7 +4231,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.CHF-LIBOR-BBA-3M</v>
+        <v>Market.QR_LIVE.RateCurve.CHF-LIBOR-BBA-6M</v>
       </c>
       <c r="C55" t="e">
         <v>#N/A</v>
@@ -4234,7 +4242,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Telerate-6M</v>
+        <v>Market.QR_LIVE.RateCurve.CHF-LIBOR-BBA-3M</v>
       </c>
       <c r="C56" t="e">
         <v>#N/A</v>
@@ -4245,167 +4253,167 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Telerate-3M</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Telerate-6M</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Telerate-1M</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Telerate-3M</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.EUR-IRSwap-5Y</v>
+        <v>Market.QR_LIVE.RateCurve.EUR-EURIBOR-Telerate-1M</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-1D</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.EUR-IRSwap-5Y</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-1W</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-1M</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-2W</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-2M</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-1M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-3M</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-2M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-1</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-3M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-2</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-1</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-3</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-2</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-4</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-3</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-5</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-4</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-6</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-5</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-7</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-6</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-8</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-7</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-3Y</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRFuture-IR-8</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-4Y</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-3Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-5Y</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-4Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-6Y</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-5Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-7Y</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-6Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-8Y</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-7Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-9Y</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-8Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-10Y</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-9Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-15Y</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-10Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-20Y</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-15Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-1D</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-IRSwap-20Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-1W</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="6" t="str">
-        <v>Market.QR_LIVE.ClearedRateCurve.USD-LIBOR-ISDA-6M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M.AUD-Deposit-2W</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="6" t="str">
-        <v>Market.QR_LIVE.RateBasisCurve.AUD-LIBOR-BBA-1M</v>
+        <v>Market.QR_LIVE.ClearedRateCurve.USD-LIBOR-ISDA-6M</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M</v>
+        <v>Market.QR_LIVE.RateBasisCurve.AUD-LIBOR-BBA-1M</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-6M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-1M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-6M</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-ISDA-1M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-1M</v>
       </c>
     </row>
     <row r="90" spans="1:1">
@@ -4415,82 +4423,82 @@
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.USD-Federal Funds-H15-OIS-COMPOUND-1D</v>
+        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-ISDA-1M</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="6" t="str">
-        <v>Market.QR_LIVE.DiscountCurve.USD-OIS-SENIOR</v>
+        <v>Market.QR_LIVE.RateCurve.USD-Federal Funds-H15-OIS-COMPOUND-1D</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-ISDA-6M</v>
+        <v>Market.QR_LIVE.DiscountCurve.USD-OIS-SENIOR</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="6" t="str">
-        <v>Market.QR_LIVE.ExchangeTradedCurve.AUD-ASX-IR</v>
+        <v>Market.QR_LIVE.RateCurve.USD-LIBOR-ISDA-6M</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="6" t="str">
-        <v>Market.QR_LIVE.ExchangeTradedCurve.ExchangeTradedCurve.AUD-ASXT-IR</v>
+        <v>Market.QR_LIVE.RateCurve.GBP-LIBOR-ISDA-6M</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="6" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-AONIA-OIS-COMPOUND-1D</v>
+        <v>Market.QR_LIVE.ExchangeTradedCurve.ExchangeTradedCurve.AUD-ASXT-IR</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="6" t="str">
-        <v>Market.QR_LIVE.EquityCurve.AUD-QBE.AU</v>
+        <v>Market.QR_LIVE.ExchangeTradedCurve.AUD-ASX-IR</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-Xibor-3M</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-AONIA-OIS-COMPOUND-1D</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.Instrument/String=AUD-BBR-BBSW-1M</v>
+        <v>Market.QR_LIVE.EquityCurve.AUD-QBE.AU</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.Instrument/String=AUD-IRSwap-1Y</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-Xibor-3M</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.Instrument/String=AUD-BBR-BBSW-1M</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.Instrument/String=AUD-IRSwap-1Y</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="6" t="str">
-        <v>Market.QR_LIVE.RateATMVolatilityMatrix.AUD-IRSwap-SydneySwapDesk</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="6" t="str">
-        <v>Market.QR_LIVE.ExchangeTradedCurve.AUD-ASXT-IR</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-20Y</v>
+        <v>Market.QR_LIVE.RateATMVolatilityMatrix.AUD-IRSwap-SydneySwapDesk</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="6" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-15Y</v>
+        <v>Market.QR_LIVE.ExchangeTradedCurve.AUD-ASXT-IR</v>
       </c>
     </row>
     <row r="107" spans="1:1">
@@ -4624,8 +4632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:W46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="H4" workbookViewId="0">
+      <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -4705,28 +4713,28 @@
       </c>
       <c r="B4" s="95">
         <f ca="1">TODAY()</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="C4" s="86" t="s">
         <v>105</v>
       </c>
       <c r="D4" s="95">
         <f ca="1">TODAY()</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="E4" s="86" t="s">
         <v>105</v>
       </c>
       <c r="F4" s="95">
         <f ca="1">TODAY()</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="G4" s="86" t="s">
         <v>105</v>
       </c>
       <c r="H4" s="95">
         <f ca="1">TODAY()</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -4759,13 +4767,13 @@
         <v>CapFloor_Coupon_0</v>
       </c>
       <c r="J5" s="84">
-        <v>43311</v>
+        <v>43738</v>
       </c>
       <c r="K5" s="84">
-        <v>43218</v>
+        <v>43645</v>
       </c>
       <c r="L5" s="84">
-        <v>43311</v>
+        <v>43738</v>
       </c>
       <c r="M5" s="81">
         <v>0.25479452054794499</v>
@@ -4824,13 +4832,13 @@
         <v>CapFloor_Coupon_1</v>
       </c>
       <c r="J6" s="84">
-        <v>43402</v>
+        <v>43829</v>
       </c>
       <c r="K6" s="84">
-        <v>43311</v>
+        <v>43738</v>
       </c>
       <c r="L6" s="84">
-        <v>43402</v>
+        <v>43829</v>
       </c>
       <c r="M6" s="81">
         <v>0.24931506849315099</v>
@@ -4866,46 +4874,46 @@
       </c>
       <c r="B7" s="95">
         <f ca="1">TODAY()+1</f>
-        <v>43218</v>
+        <v>43645</v>
       </c>
       <c r="C7" s="86" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="95">
         <f ca="1">TODAY()+1</f>
-        <v>43218</v>
+        <v>43645</v>
       </c>
       <c r="E7" s="86" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="95">
         <f ca="1">TODAY()+1</f>
-        <v>43218</v>
+        <v>43645</v>
       </c>
       <c r="G7" s="86" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="95">
         <f ca="1">TODAY()+1</f>
-        <v>43218</v>
+        <v>43645</v>
       </c>
       <c r="I7" s="81" t="str">
         <v>CapFloor_Coupon_2</v>
       </c>
       <c r="J7" s="84">
-        <v>43494</v>
+        <v>43920</v>
       </c>
       <c r="K7" s="84">
-        <v>43402</v>
+        <v>43829</v>
       </c>
       <c r="L7" s="84">
-        <v>43494</v>
+        <v>43920</v>
       </c>
       <c r="M7" s="81">
-        <v>0.25205479452054802</v>
+        <v>0.24931506849315099</v>
       </c>
       <c r="N7" s="81" t="str">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O7" s="107">
         <v>100000000</v>
@@ -4943,46 +4951,46 @@
       </c>
       <c r="B8" s="97">
         <f ca="1">_xll.HLV5r3.Financial.Cache.AddPeriod(B7,B9,B1,"FOLLOWING","Calendar")</f>
-        <v>44314</v>
+        <v>44741</v>
       </c>
       <c r="C8" s="87" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="97">
         <f ca="1">_xll.HLV5r3.Financial.Cache.AddPeriod(D7,D9,D1,"FOLLOWING","Calendar")</f>
-        <v>44679</v>
+        <v>45106</v>
       </c>
       <c r="E8" s="87" t="s">
         <v>19</v>
       </c>
       <c r="F8" s="97">
         <f ca="1">_xll.HLV5r3.Financial.Cache.AddPeriod(F7,F9,F1,"FOLLOWING","Calendar")</f>
-        <v>45044</v>
+        <v>45474</v>
       </c>
       <c r="G8" s="87" t="s">
         <v>19</v>
       </c>
       <c r="H8" s="97">
         <f ca="1">_xll.HLV5r3.Financial.Cache.AddPeriod(H7,H9,H1,"FOLLOWING","Calendar")</f>
-        <v>46871</v>
+        <v>47298</v>
       </c>
       <c r="I8" s="81" t="str">
         <v>CapFloor_Coupon_3</v>
       </c>
       <c r="J8" s="84">
-        <v>43584</v>
+        <v>44011</v>
       </c>
       <c r="K8" s="84">
-        <v>43494</v>
+        <v>43920</v>
       </c>
       <c r="L8" s="84">
-        <v>43584</v>
+        <v>44011</v>
       </c>
       <c r="M8" s="81">
-        <v>0.24657534246575299</v>
+        <v>0.24931506849315099</v>
       </c>
       <c r="N8" s="81" t="str">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O8" s="107">
         <v>100000000</v>
@@ -5043,19 +5051,19 @@
         <v>CapFloor_Coupon_4</v>
       </c>
       <c r="J9" s="84">
-        <v>43675</v>
+        <v>44103</v>
       </c>
       <c r="K9" s="84">
-        <v>43584</v>
+        <v>44011</v>
       </c>
       <c r="L9" s="84">
-        <v>43675</v>
+        <v>44103</v>
       </c>
       <c r="M9" s="81">
-        <v>0.24931506849315099</v>
+        <v>0.25205479452054802</v>
       </c>
       <c r="N9" s="81" t="str">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O9" s="107">
         <v>100000000</v>
@@ -5116,13 +5124,13 @@
         <v>CapFloor_Coupon_5</v>
       </c>
       <c r="J10" s="84">
-        <v>43766</v>
+        <v>44194</v>
       </c>
       <c r="K10" s="84">
-        <v>43675</v>
+        <v>44103</v>
       </c>
       <c r="L10" s="84">
-        <v>43766</v>
+        <v>44194</v>
       </c>
       <c r="M10" s="81">
         <v>0.24931506849315099</v>
@@ -5189,19 +5197,19 @@
         <v>CapFloor_Coupon_6</v>
       </c>
       <c r="J11" s="84">
-        <v>43858</v>
+        <v>44284</v>
       </c>
       <c r="K11" s="84">
-        <v>43766</v>
+        <v>44194</v>
       </c>
       <c r="L11" s="84">
-        <v>43858</v>
+        <v>44284</v>
       </c>
       <c r="M11" s="81">
-        <v>0.25205479452054802</v>
+        <v>0.24657534246575299</v>
       </c>
       <c r="N11" s="81" t="str">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O11" s="107">
         <v>100000000</v>
@@ -5230,7 +5238,7 @@
       </c>
       <c r="W11" s="81">
         <f ca="1"/>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -5262,19 +5270,19 @@
         <v>CapFloor_Coupon_7</v>
       </c>
       <c r="J12" s="84">
-        <v>43949</v>
+        <v>44376</v>
       </c>
       <c r="K12" s="84">
-        <v>43858</v>
+        <v>44284</v>
       </c>
       <c r="L12" s="84">
-        <v>43949</v>
+        <v>44376</v>
       </c>
       <c r="M12" s="81">
-        <v>0.24931506849315099</v>
+        <v>0.25205479452054802</v>
       </c>
       <c r="N12" s="81" t="str">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O12" s="107">
         <v>100000000</v>
@@ -5335,19 +5343,19 @@
         <v>CapFloor_Coupon_8</v>
       </c>
       <c r="J13" s="84">
-        <v>44040</v>
+        <v>44468</v>
       </c>
       <c r="K13" s="84">
-        <v>43949</v>
+        <v>44376</v>
       </c>
       <c r="L13" s="84">
-        <v>44040</v>
+        <v>44468</v>
       </c>
       <c r="M13" s="81">
-        <v>0.24931506849315099</v>
+        <v>0.25205479452054802</v>
       </c>
       <c r="N13" s="81" t="str">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O13" s="107">
         <v>100000000</v>
@@ -5408,19 +5416,19 @@
         <v>CapFloor_Coupon_9</v>
       </c>
       <c r="J14" s="84">
-        <v>44132</v>
+        <v>44559</v>
       </c>
       <c r="K14" s="84">
-        <v>44040</v>
+        <v>44468</v>
       </c>
       <c r="L14" s="84">
-        <v>44132</v>
+        <v>44559</v>
       </c>
       <c r="M14" s="81">
-        <v>0.25205479452054802</v>
+        <v>0.24931506849315099</v>
       </c>
       <c r="N14" s="81" t="str">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O14" s="107">
         <v>100000000</v>
@@ -5481,19 +5489,19 @@
         <v>CapFloor_Coupon_10</v>
       </c>
       <c r="J15" s="84">
-        <v>44224</v>
+        <v>44649</v>
       </c>
       <c r="K15" s="84">
-        <v>44132</v>
+        <v>44559</v>
       </c>
       <c r="L15" s="84">
-        <v>44224</v>
+        <v>44649</v>
       </c>
       <c r="M15" s="81">
-        <v>0.25205479452054802</v>
+        <v>0.24657534246575299</v>
       </c>
       <c r="N15" s="81" t="str">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O15" s="107">
         <v>100000000</v>
@@ -5550,19 +5558,19 @@
         <v>CapFloor_Coupon_11</v>
       </c>
       <c r="J16" s="84">
-        <v>44314</v>
+        <v>44741</v>
       </c>
       <c r="K16" s="84">
-        <v>44224</v>
+        <v>44649</v>
       </c>
       <c r="L16" s="84">
-        <v>44314</v>
+        <v>44741</v>
       </c>
       <c r="M16" s="81">
-        <v>0.24657534246575299</v>
+        <v>0.25205479452054802</v>
       </c>
       <c r="N16" s="81" t="str">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O16" s="107">
         <v>100000000</v>
@@ -5615,19 +5623,19 @@
         <v>CapFloor_Coupon_12</v>
       </c>
       <c r="J17" s="84">
-        <v>44405</v>
+        <v>44833</v>
       </c>
       <c r="K17" s="84">
-        <v>44314</v>
+        <v>44741</v>
       </c>
       <c r="L17" s="84">
-        <v>44405</v>
+        <v>44833</v>
       </c>
       <c r="M17" s="81">
-        <v>0.24931506849315099</v>
+        <v>0.25205479452054802</v>
       </c>
       <c r="N17" s="81" t="str">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O17" s="107">
         <v>100000000</v>
@@ -5680,19 +5688,19 @@
         <v>CapFloor_Coupon_13</v>
       </c>
       <c r="J18" s="84">
-        <v>44497</v>
+        <v>44924</v>
       </c>
       <c r="K18" s="84">
-        <v>44405</v>
+        <v>44833</v>
       </c>
       <c r="L18" s="84">
-        <v>44497</v>
+        <v>44924</v>
       </c>
       <c r="M18" s="81">
-        <v>0.25205479452054802</v>
+        <v>0.24931506849315099</v>
       </c>
       <c r="N18" s="81" t="str">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O18" s="107">
         <v>100000000</v>
@@ -5737,19 +5745,19 @@
         <v>CapFloor_Coupon_14</v>
       </c>
       <c r="J19" s="84">
-        <v>44589</v>
+        <v>45014</v>
       </c>
       <c r="K19" s="84">
-        <v>44497</v>
+        <v>44924</v>
       </c>
       <c r="L19" s="84">
-        <v>44589</v>
+        <v>45014</v>
       </c>
       <c r="M19" s="81">
-        <v>0.25205479452054802</v>
+        <v>0.24657534246575299</v>
       </c>
       <c r="N19" s="81" t="str">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O19" s="107">
         <v>100000000</v>
@@ -5802,19 +5810,19 @@
         <v>CapFloor_Coupon_15</v>
       </c>
       <c r="J20" s="84">
-        <v>44679</v>
+        <v>45106</v>
       </c>
       <c r="K20" s="84">
-        <v>44589</v>
+        <v>45014</v>
       </c>
       <c r="L20" s="84">
-        <v>44679</v>
+        <v>45106</v>
       </c>
       <c r="M20" s="81">
-        <v>0.24657534246575299</v>
+        <v>0.25205479452054802</v>
       </c>
       <c r="N20" s="81" t="str">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O20" s="107">
         <v>100000000</v>
@@ -5844,28 +5852,28 @@
       </c>
       <c r="B21" s="100">
         <f ca="1">DAY(B7)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" s="90" t="s">
         <v>32</v>
       </c>
       <c r="D21" s="100">
         <f ca="1">DAY(D7)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E21" s="90" t="s">
         <v>32</v>
       </c>
       <c r="F21" s="100">
         <f ca="1">DAY(F7)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G21" s="90" t="s">
         <v>32</v>
       </c>
       <c r="H21" s="100">
         <f ca="1">DAY(H7)</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I21" s="81" t="e">
         <v>#N/A</v>
@@ -6231,7 +6239,7 @@
       </c>
       <c r="B27" s="83">
         <f ca="1"/>
-        <v>504228.2984430464</v>
+        <v>13500582.310384462</v>
       </c>
       <c r="C27" s="80" t="str">
         <f t="array" aca="1" ref="C27:D30" ca="1">_xll.HLV5r3.Financial.Cache.ViewValuationReport(D26)</f>
@@ -6239,7 +6247,7 @@
       </c>
       <c r="D27" s="83">
         <f ca="1"/>
-        <v>1253889.6066449087</v>
+        <v>0</v>
       </c>
       <c r="E27" s="80" t="str">
         <f t="array" aca="1" ref="E27:F30" ca="1">_xll.HLV5r3.Financial.Cache.ViewValuationReport(F26)</f>
@@ -6247,7 +6255,7 @@
       </c>
       <c r="F27" s="83">
         <f ca="1"/>
-        <v>1725292.669242745</v>
+        <v>22778609.454887617</v>
       </c>
       <c r="G27" s="80" t="str">
         <f t="array" aca="1" ref="G27:H30" ca="1">_xll.HLV5r3.Financial.Cache.ViewValuationReport(H26)</f>
@@ -6255,7 +6263,7 @@
       </c>
       <c r="H27" s="83">
         <f ca="1"/>
-        <v>2781299.6780850105</v>
+        <v>0</v>
       </c>
       <c r="I27" s="81" t="e">
         <v>#N/A</v>
@@ -6304,7 +6312,7 @@
       </c>
       <c r="B28" s="83">
         <f ca="1"/>
-        <v>27717.126811162238</v>
+        <v>28063.374237952939</v>
       </c>
       <c r="C28" s="80" t="str">
         <f ca="1"/>
@@ -6312,7 +6320,7 @@
       </c>
       <c r="D28" s="83">
         <f ca="1"/>
-        <v>36067.301301547566</v>
+        <v>36518.019438958414</v>
       </c>
       <c r="E28" s="80" t="str">
         <f ca="1"/>
@@ -6320,7 +6328,7 @@
       </c>
       <c r="F28" s="83">
         <f ca="1"/>
-        <v>43739.290351327363</v>
+        <v>44839.318968882537</v>
       </c>
       <c r="G28" s="80" t="str">
         <f ca="1"/>
@@ -6328,7 +6336,7 @@
       </c>
       <c r="H28" s="83">
         <f ca="1"/>
-        <v>77868.362805036406</v>
+        <v>79828.197706307838</v>
       </c>
       <c r="I28" s="81" t="e">
         <v>#N/A</v>
@@ -6377,7 +6385,7 @@
       </c>
       <c r="B29" s="83">
         <f ca="1"/>
-        <v>504228.2984430464</v>
+        <v>13500582.310384462</v>
       </c>
       <c r="C29" s="80" t="str">
         <f ca="1"/>
@@ -6385,7 +6393,7 @@
       </c>
       <c r="D29" s="83">
         <f ca="1"/>
-        <v>1253889.6066449087</v>
+        <v>0</v>
       </c>
       <c r="E29" s="80" t="str">
         <f ca="1"/>
@@ -6393,7 +6401,7 @@
       </c>
       <c r="F29" s="83">
         <f ca="1"/>
-        <v>1725292.669242745</v>
+        <v>22778609.454887617</v>
       </c>
       <c r="G29" s="80" t="str">
         <f ca="1"/>
@@ -6401,7 +6409,7 @@
       </c>
       <c r="H29" s="83">
         <f ca="1"/>
-        <v>2781299.6780850105</v>
+        <v>0</v>
       </c>
       <c r="I29" s="81" t="e">
         <v>#N/A</v>
@@ -6450,7 +6458,7 @@
       </c>
       <c r="B30" s="83">
         <f ca="1"/>
-        <v>-108.79363184657933</v>
+        <v>-1812.3847565949363</v>
       </c>
       <c r="C30" s="80" t="str">
         <f ca="1"/>
@@ -6458,7 +6466,7 @@
       </c>
       <c r="D30" s="83">
         <f ca="1"/>
-        <v>-250.16243696223231</v>
+        <v>0</v>
       </c>
       <c r="E30" s="80" t="str">
         <f ca="1"/>
@@ -6466,7 +6474,7 @@
       </c>
       <c r="F30" s="83">
         <f ca="1"/>
-        <v>-638.43326002200411</v>
+        <v>-5027.9126482897618</v>
       </c>
       <c r="G30" s="80" t="str">
         <f ca="1"/>
@@ -6474,7 +6482,7 @@
       </c>
       <c r="H30" s="83">
         <f ca="1"/>
-        <v>-1454.7315613677345</v>
+        <v>0</v>
       </c>
       <c r="I30" s="81" t="e">
         <v>#N/A</v>
@@ -6871,7 +6879,7 @@
       </c>
       <c r="B38" s="83">
         <f ca="1"/>
-        <v>504228.2984430464</v>
+        <v>13500582.310384462</v>
       </c>
       <c r="C38" s="82"/>
       <c r="D38" s="82"/>
@@ -6926,7 +6934,7 @@
       </c>
       <c r="B39" s="83">
         <f ca="1"/>
-        <v>27717.126811162238</v>
+        <v>28063.374237952939</v>
       </c>
       <c r="C39" s="82"/>
       <c r="D39" s="82"/>
@@ -6981,7 +6989,7 @@
       </c>
       <c r="B40" s="83">
         <f ca="1"/>
-        <v>504228.2984430464</v>
+        <v>13500582.310384462</v>
       </c>
       <c r="C40" s="82"/>
       <c r="D40" s="82"/>
@@ -7036,7 +7044,7 @@
       </c>
       <c r="B41" s="83">
         <f ca="1"/>
-        <v>-108.79363184657933</v>
+        <v>-1812.3847565949363</v>
       </c>
       <c r="C41" s="82"/>
       <c r="D41" s="82"/>
@@ -8127,7 +8135,7 @@
       <c r="C2" s="9"/>
       <c r="D2" s="10">
         <f ca="1">TODAY() + 52</f>
-        <v>43269</v>
+        <v>43696</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>139</v>
@@ -8963,7 +8971,7 @@
       </c>
       <c r="I19" s="22">
         <f ca="1">TODAY()</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="K19" s="44" t="str">
         <f ca="1"/>
@@ -9073,7 +9081,7 @@
       </c>
       <c r="I21" s="22">
         <f ca="1">TODAY()</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="K21" s="44" t="str">
         <f ca="1"/>
@@ -9493,7 +9501,7 @@
       </c>
       <c r="I29" s="22">
         <f ca="1">I21</f>
-        <v>43217</v>
+        <v>43644</v>
       </c>
       <c r="K29" s="45" t="e">
         <f ca="1"/>
@@ -10119,7 +10127,7 @@
       </c>
       <c r="E42" s="40">
         <f ca="1"/>
-        <v>638670.32928665995</v>
+        <v>228449.81045235964</v>
       </c>
       <c r="F42" s="15"/>
       <c r="G42" s="11"/>
@@ -10169,7 +10177,7 @@
       </c>
       <c r="E43" s="40">
         <f ca="1"/>
-        <v>107534.86835240309</v>
+        <v>114001.98379326753</v>
       </c>
       <c r="F43" s="15"/>
       <c r="G43" s="11"/>
@@ -10219,7 +10227,7 @@
       </c>
       <c r="E44" s="40">
         <f ca="1"/>
-        <v>638670.32928665995</v>
+        <v>228449.81045235964</v>
       </c>
       <c r="F44" s="15"/>
       <c r="G44" s="11"/>
@@ -10269,7 +10277,7 @@
       </c>
       <c r="E45" s="40">
         <f ca="1"/>
-        <v>-162.41876021233159</v>
+        <v>-39.249409526967661</v>
       </c>
       <c r="F45" s="15"/>
       <c r="G45" s="11"/>
@@ -10319,7 +10327,7 @@
       </c>
       <c r="E46" s="40">
         <f ca="1"/>
-        <v>14622582.876215296</v>
+        <v>9510104.5162176378</v>
       </c>
       <c r="F46" s="15"/>
       <c r="G46" s="11"/>
@@ -10369,7 +10377,7 @@
       </c>
       <c r="E47" s="40">
         <f ca="1"/>
-        <v>726282.65084028163</v>
+        <v>249134.78237779238</v>
       </c>
       <c r="F47" s="15"/>
       <c r="G47" s="11"/>
@@ -11146,7 +11154,7 @@
       </c>
       <c r="L3" s="112">
         <f ca="1"/>
-        <v>1.3309205307560901</v>
+        <v>1.4110865011998699</v>
       </c>
       <c r="M3" s="66">
         <f ca="1"/>
@@ -11229,7 +11237,7 @@
       </c>
       <c r="L4" s="112">
         <f ca="1"/>
-        <v>1.2974400414545699</v>
+        <v>1.3755893656345499</v>
       </c>
       <c r="M4" s="66">
         <f ca="1"/>
@@ -11312,7 +11320,7 @@
       </c>
       <c r="L5" s="112">
         <f ca="1"/>
-        <v>1.2660151057922799</v>
+        <v>1.3422715968501699</v>
       </c>
       <c r="M5" s="66">
         <f ca="1"/>
@@ -11395,7 +11403,7 @@
       </c>
       <c r="L6" s="112">
         <f ca="1"/>
-        <v>1.23433643418786</v>
+        <v>1.3086848087257601</v>
       </c>
       <c r="M6" s="66">
         <f ca="1"/>
@@ -11478,7 +11486,7 @@
       </c>
       <c r="L7" s="112">
         <f ca="1"/>
-        <v>1.2039450737799899</v>
+        <v>1.27646287102655</v>
       </c>
       <c r="M7" s="66">
         <f ca="1"/>
@@ -11561,7 +11569,7 @@
       </c>
       <c r="L8" s="112">
         <f ca="1"/>
-        <v>1.1743019978445299</v>
+        <v>1.24503428957489</v>
       </c>
       <c r="M8" s="66">
         <f ca="1"/>
@@ -11644,7 +11652,7 @@
       </c>
       <c r="L9" s="112">
         <f ca="1"/>
-        <v>1.14538878240692</v>
+        <v>1.21437953065618</v>
       </c>
       <c r="M9" s="66">
         <f ca="1"/>
@@ -11727,7 +11735,7 @@
       </c>
       <c r="L10" s="112">
         <f ca="1"/>
-        <v>1.11703443870436</v>
+        <v>1.1843173062600201</v>
       </c>
       <c r="M10" s="66">
         <f ca="1"/>
@@ -11810,7 +11818,7 @@
       </c>
       <c r="L11" s="112">
         <f ca="1"/>
-        <v>1.0895312432429101</v>
+        <v>1.1551574977224901</v>
       </c>
       <c r="M11" s="66">
         <f ca="1"/>
@@ -11893,7 +11901,7 @@
       </c>
       <c r="L12" s="112">
         <f ca="1"/>
-        <v>1.0624141286588</v>
+        <v>1.1264070250557301</v>
       </c>
       <c r="M12" s="66">
         <f ca="1"/>
@@ -11976,7 +11984,7 @@
       </c>
       <c r="L13" s="112">
         <f ca="1"/>
-        <v>1.03639772646274</v>
+        <v>1.0988235645107201</v>
       </c>
       <c r="M13" s="66">
         <f ca="1"/>
@@ -12059,7 +12067,7 @@
       </c>
       <c r="L14" s="112">
         <f ca="1"/>
-        <v>1.01060304083302</v>
+        <v>1.07147517529165</v>
       </c>
       <c r="M14" s="66">
         <f ca="1"/>
@@ -12118,7 +12126,7 @@
       </c>
       <c r="F15" s="67">
         <f ca="1"/>
-        <v>2.7716358927618031E-2</v>
+        <v>0</v>
       </c>
       <c r="G15" s="66">
         <f ca="1"/>
@@ -12142,7 +12150,7 @@
       </c>
       <c r="L15" s="112">
         <f ca="1"/>
-        <v>0.98593232716602797</v>
+        <v>1.04523688614288</v>
       </c>
       <c r="M15" s="66">
         <f ca="1"/>
@@ -12158,7 +12166,7 @@
       </c>
       <c r="P15" s="63" t="b">
         <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15" s="63" t="e">
         <f ca="1"/>
@@ -12166,11 +12174,11 @@
       </c>
       <c r="R15" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>1374427.6618900995</v>
+        <v>0</v>
       </c>
       <c r="S15" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>1374427.6618900995</v>
+        <v>0</v>
       </c>
       <c r="T15" s="67">
         <f t="shared" ca="1" si="2"/>
@@ -12201,11 +12209,11 @@
       </c>
       <c r="F16" s="67">
         <f ca="1"/>
-        <v>4.770213313812486E-2</v>
+        <v>0</v>
       </c>
       <c r="G16" s="66">
         <f ca="1"/>
-        <v>21694.871763623771</v>
+        <v>0</v>
       </c>
       <c r="H16" s="66" t="str">
         <f ca="1"/>
@@ -12225,11 +12233,11 @@
       </c>
       <c r="L16" s="112">
         <f ca="1"/>
-        <v>0.96115018723657997</v>
+        <v>1.0189430229291501</v>
       </c>
       <c r="M16" s="66">
         <f ca="1"/>
-        <v>20852.030057680582</v>
+        <v>0</v>
       </c>
       <c r="N16" s="112">
         <f ca="1"/>
@@ -12241,7 +12249,7 @@
       </c>
       <c r="P16" s="63" t="b">
         <f ca="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="63" t="e">
         <f ca="1"/>
@@ -12249,19 +12257,19 @@
       </c>
       <c r="R16" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>2430848.4284085524</v>
+        <v>0</v>
       </c>
       <c r="S16" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>2430848.4284085524</v>
+        <v>0</v>
       </c>
       <c r="T16" s="67">
         <f t="shared" ca="1" si="2"/>
-        <v>4.2582508079245629E-4</v>
+        <v>0</v>
       </c>
       <c r="U16" s="67">
         <f t="shared" ca="1" si="3"/>
-        <v>4.2573269858724102E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -12284,11 +12292,11 @@
       </c>
       <c r="F17" s="67">
         <f ca="1"/>
-        <v>4.6463131384616913E-2</v>
+        <v>1.0950462124780336E-2</v>
       </c>
       <c r="G17" s="66">
         <f ca="1"/>
-        <v>37278.93506575709</v>
+        <v>0</v>
       </c>
       <c r="H17" s="66" t="str">
         <f ca="1"/>
@@ -12308,11 +12316,11 @@
       </c>
       <c r="L17" s="112">
         <f ca="1"/>
-        <v>0.93814742349035496</v>
+        <v>0.99427798351862295</v>
       </c>
       <c r="M17" s="66">
         <f ca="1"/>
-        <v>34973.136882404266</v>
+        <v>0</v>
       </c>
       <c r="N17" s="112">
         <f ca="1"/>
@@ -12332,19 +12340,19 @@
       </c>
       <c r="R17" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>2278602.881601763</v>
+        <v>537022.66310566629</v>
       </c>
       <c r="S17" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>2278602.881601763</v>
+        <v>537022.66310566629</v>
       </c>
       <c r="T17" s="67">
         <f t="shared" ca="1" si="2"/>
-        <v>7.6044053994522983E-4</v>
+        <v>0</v>
       </c>
       <c r="U17" s="67">
         <f t="shared" ca="1" si="3"/>
-        <v>7.6015705581012998E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -12367,11 +12375,11 @@
       </c>
       <c r="F18" s="67">
         <f ca="1"/>
-        <v>4.8521269451146244E-2</v>
+        <v>4.8890101835258305E-2</v>
       </c>
       <c r="G18" s="66">
         <f ca="1"/>
-        <v>101084.72972885877</v>
+        <v>18750.349365171794</v>
       </c>
       <c r="H18" s="66" t="str">
         <f ca="1"/>
@@ -12391,11 +12399,11 @@
       </c>
       <c r="L18" s="112">
         <f ca="1"/>
-        <v>0.91481528030912596</v>
+        <v>0.96944488648945004</v>
       </c>
       <c r="M18" s="66">
         <f ca="1"/>
-        <v>92473.855361878188</v>
+        <v>18177.430311956501</v>
       </c>
       <c r="N18" s="112">
         <f ca="1"/>
@@ -12415,19 +12423,19 @@
       </c>
       <c r="R18" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>2459297.2187567265</v>
+        <v>2477991.4628829542</v>
       </c>
       <c r="S18" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>2459297.2187567265</v>
+        <v>2477991.4628829542</v>
       </c>
       <c r="T18" s="67">
         <f t="shared" ca="1" si="2"/>
-        <v>1.9963924452607797E-3</v>
+        <v>3.7000870323738761E-4</v>
       </c>
       <c r="U18" s="67">
         <f t="shared" ca="1" si="3"/>
-        <v>1.9943743973531601E-3</v>
+        <v>3.6993932531284904E-4</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -12450,11 +12458,11 @@
       </c>
       <c r="F19" s="67">
         <f ca="1"/>
-        <v>4.9061088062170355E-2</v>
+        <v>4.5837559777571341E-2</v>
       </c>
       <c r="G19" s="66">
         <f ca="1"/>
-        <v>135783.98768172535</v>
+        <v>21914.523880997727</v>
       </c>
       <c r="H19" s="66" t="str">
         <f ca="1"/>
@@ -12474,11 +12482,11 @@
       </c>
       <c r="L19" s="112">
         <f ca="1"/>
-        <v>0.89242768657166105</v>
+        <v>0.94584495111809597</v>
       </c>
       <c r="M19" s="66">
         <f ca="1"/>
-        <v>121177.39000027707</v>
+        <v>20727.741768998643</v>
       </c>
       <c r="N19" s="112">
         <f ca="1"/>
@@ -12498,19 +12506,19 @@
       </c>
       <c r="R19" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>2446333.706113698</v>
+        <v>2285598.8711008159</v>
       </c>
       <c r="S19" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>2446333.706113698</v>
+        <v>2285598.8711008159</v>
       </c>
       <c r="T19" s="67">
         <f t="shared" ca="1" si="2"/>
-        <v>2.7268430285002591E-3</v>
+        <v>4.3959090659289501E-4</v>
       </c>
       <c r="U19" s="67">
         <f t="shared" ca="1" si="3"/>
-        <v>2.7231404122983402E-3</v>
+        <v>4.39494572338691E-4</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -12533,11 +12541,11 @@
       </c>
       <c r="F20" s="67">
         <f ca="1"/>
-        <v>4.961337358652422E-2</v>
+        <v>4.8184543331879333E-2</v>
       </c>
       <c r="G20" s="66">
         <f ca="1"/>
-        <v>171275.1638750901</v>
+        <v>84499.370435523437</v>
       </c>
       <c r="H20" s="66" t="str">
         <f ca="1"/>
@@ -12557,11 +12565,11 @@
       </c>
       <c r="L20" s="112">
         <f ca="1"/>
-        <v>0.87046920376941805</v>
+        <v>0.92257199869589102</v>
       </c>
       <c r="M20" s="66">
         <f ca="1"/>
-        <v>149089.75552382626</v>
+        <v>77956.75307124533</v>
       </c>
       <c r="N20" s="112">
         <f ca="1"/>
@@ -12581,19 +12589,19 @@
       </c>
       <c r="R20" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>2487465.0318723121</v>
+        <v>2415827.7889681985</v>
       </c>
       <c r="S20" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>2487465.0318723121</v>
+        <v>2415827.7889681985</v>
       </c>
       <c r="T20" s="67">
         <f t="shared" ca="1" si="2"/>
-        <v>3.4220050236414461E-3</v>
+        <v>1.6867952881731425E-3</v>
       </c>
       <c r="U20" s="67">
         <f t="shared" ca="1" si="3"/>
-        <v>3.4161439789293902E-3</v>
+        <v>1.6853699567741E-3</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -12616,11 +12624,11 @@
       </c>
       <c r="F21" s="67">
         <f ca="1"/>
-        <v>5.2123225765038354E-2</v>
+        <v>4.8913127378418284E-2</v>
       </c>
       <c r="G21" s="66">
         <f ca="1"/>
-        <v>259164.96272522651</v>
+        <v>123970.53869609942</v>
       </c>
       <c r="H21" s="66" t="str">
         <f ca="1"/>
@@ -12640,11 +12648,11 @@
       </c>
       <c r="L21" s="112">
         <f ca="1"/>
-        <v>0.84928209101302699</v>
+        <v>0.90011616045087095</v>
       </c>
       <c r="M21" s="66">
         <f ca="1"/>
-        <v>220104.16146059355</v>
+        <v>111587.88530015915</v>
       </c>
       <c r="N21" s="112">
         <f ca="1"/>
@@ -12664,19 +12672,19 @@
       </c>
       <c r="R21" s="66">
         <f t="shared" ca="1" si="0"/>
-        <v>2584740.7845128602</v>
+        <v>2425555.0836969065</v>
       </c>
       <c r="S21" s="66">
         <f t="shared" ca="1" si="1"/>
-        <v>2584740.7845128602</v>
+        <v>2425555.0836969065</v>
       </c>
       <c r="T21" s="67">
         <f t="shared" ca="1" si="2"/>
-        <v>5.2398345885465401E-3</v>
+        <v>2.5030614357666042E-3</v>
       </c>
       <c r="U21" s="67">
         <f t="shared" ca="1" si="3"/>
-        <v>5.22625477318827E-3</v>
+        <v>2.4999583770207901E-3</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -15996,7 +16004,7 @@
       <c r="C2" s="9"/>
       <c r="D2" s="10">
         <f ca="1">TODAY() + 52</f>
-        <v>43269</v>
+        <v>43696</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>139</v>
@@ -16590,7 +16598,7 @@
         <v>NPV</v>
       </c>
       <c r="E43" s="40">
-        <v>187788271.27496088</v>
+        <v>187788656.49643475</v>
       </c>
       <c r="F43" s="15"/>
       <c r="G43" s="11"/>
@@ -16614,7 +16622,7 @@
         <v>LocalCurrencyBucketedDeltaVector.AUD</v>
       </c>
       <c r="E45" s="40">
-        <v>23334.917540064198</v>
+        <v>23334.97701890632</v>
       </c>
       <c r="F45" s="15"/>
       <c r="G45" s="11"/>
@@ -16626,7 +16634,7 @@
         <v>LocalCurrencyBucketedDeltaVector.AUD.16</v>
       </c>
       <c r="E46" s="40">
-        <v>28.035312789638887</v>
+        <v>28.035380907357268</v>
       </c>
       <c r="F46" s="15"/>
       <c r="G46" s="11"/>
@@ -16638,7 +16646,7 @@
         <v>LocalCurrencyBucketedDeltaVector.AUD.15</v>
       </c>
       <c r="E47" s="40">
-        <v>565.65296439273482</v>
+        <v>565.65440975208196</v>
       </c>
       <c r="F47" s="15"/>
       <c r="G47" s="11"/>
@@ -16650,7 +16658,7 @@
         <v>LocalCurrencyBucketedDeltaVector.AUD.14</v>
       </c>
       <c r="E48" s="40">
-        <v>667.24795916949745</v>
+        <v>667.24964653768131</v>
       </c>
       <c r="F48" s="15"/>
       <c r="G48" s="11"/>
@@ -16662,7 +16670,7 @@
         <v>LocalCurrencyBucketedDeltaVector.AUD.13</v>
       </c>
       <c r="E49" s="40">
-        <v>770.01879907344619</v>
+        <v>770.02071359646652</v>
       </c>
       <c r="F49" s="46"/>
       <c r="G49" s="11"/>
@@ -16674,7 +16682,7 @@
         <v>LocalCurrencyBucketedDeltaVector.AUD.12</v>
       </c>
       <c r="E50" s="40">
-        <v>875.19140327283276</v>
+        <v>875.19353257866089</v>
       </c>
       <c r="F50" s="46"/>
       <c r="G50" s="11"/>
@@ -16686,7 +16694,7 @@
         <v>LocalCurrencyBucketedDeltaVector.AUD.11</v>
       </c>
       <c r="E51" s="40">
-        <v>976.069496031212</v>
+        <v>976.07182034923585</v>
       </c>
       <c r="F51" s="46"/>
       <c r="G51" s="11"/>
@@ -16698,7 +16706,7 @@
         <v>LocalCurrencyBucketedDeltaVector.AUD.10</v>
       </c>
       <c r="E52" s="40">
-        <v>1081.8545376177149</v>
+        <v>1081.8570655066642</v>
       </c>
       <c r="F52" s="46"/>
       <c r="G52" s="11"/>
@@ -16710,7 +16718,7 @@
         <v>LocalCurrencyBucketedDeltaVector.AUD.9</v>
       </c>
       <c r="E53" s="40">
-        <v>1190.2149490231971</v>
+        <v>1190.217687115693</v>
       </c>
       <c r="F53" s="46"/>
       <c r="G53" s="11"/>
@@ -16722,7 +16730,7 @@
         <v>LocalCurrencyBucketedDeltaVector.AUD.8</v>
       </c>
       <c r="E54" s="40">
-        <v>1301.1366144027743</v>
+        <v>1301.1395658595923</v>
       </c>
       <c r="F54" s="46"/>
       <c r="G54" s="11"/>
@@ -16734,7 +16742,7 @@
         <v>LocalCurrencyBucketedDeltaVector.AUD.7</v>
       </c>
       <c r="E55" s="40">
-        <v>1411.0496366970885</v>
+        <v>1411.0528280804626</v>
       </c>
       <c r="F55" s="46"/>
       <c r="G55" s="11"/>
@@ -16746,7 +16754,7 @@
         <v>LocalCurrencyBucketedDeltaVector.AUD.6</v>
       </c>
       <c r="E56" s="40">
-        <v>1522.400581795516</v>
+        <v>1522.4040949435835</v>
       </c>
       <c r="F56" s="46"/>
       <c r="G56" s="11"/>
@@ -16758,7 +16766,7 @@
         <v>LocalCurrencyBucketedDeltaVector.AUD.5</v>
       </c>
       <c r="E57" s="40">
-        <v>1636.4995107514585</v>
+        <v>1636.5034354308207</v>
       </c>
       <c r="F57" s="46"/>
       <c r="G57" s="11"/>
@@ -16770,7 +16778,7 @@
         <v>LocalCurrencyBucketedDeltaVector.AUD.4</v>
       </c>
       <c r="E58" s="40">
-        <v>1753.4915074477583</v>
+        <v>1753.4959016984826</v>
       </c>
       <c r="F58" s="46"/>
       <c r="G58" s="11"/>
@@ -16782,7 +16790,7 @@
         <v>LocalCurrencyBucketedDeltaVector.AUD.3</v>
       </c>
       <c r="E59" s="40">
-        <v>1869.6517618040714</v>
+        <v>1869.6566143470409</v>
       </c>
       <c r="F59" s="46"/>
       <c r="G59" s="11"/>
@@ -16794,7 +16802,7 @@
         <v>LocalCurrencyBucketedDeltaVector.AUD.2</v>
       </c>
       <c r="E60" s="40">
-        <v>1987.394045780492</v>
+        <v>1987.399199784933</v>
       </c>
       <c r="F60" s="46"/>
       <c r="G60" s="11"/>
@@ -16806,7 +16814,7 @@
         <v>LocalCurrencyBucketedDeltaVector.AUD.1</v>
       </c>
       <c r="E61" s="40">
-        <v>2107.9261859606568</v>
+        <v>2107.9317920740937</v>
       </c>
       <c r="F61" s="46"/>
       <c r="G61" s="11"/>
@@ -16818,7 +16826,7 @@
         <v>LocalCurrencyBucketedDeltaVector.AUD.0</v>
       </c>
       <c r="E62" s="40">
-        <v>3591.0822740541048</v>
+        <v>3591.0933303434658</v>
       </c>
       <c r="F62" s="46"/>
       <c r="G62" s="11"/>
@@ -16830,7 +16838,7 @@
         <v>LocalCurrencyDelta1.AUD</v>
       </c>
       <c r="E63" s="40">
-        <v>23323.932596735482</v>
+        <v>23323.994024370015</v>
       </c>
       <c r="F63" s="46"/>
       <c r="G63" s="11"/>
@@ -16842,7 +16850,7 @@
         <v>LocalCurrencyDelta1PDH.AUD</v>
       </c>
       <c r="E64" s="40">
-        <v>23596.740552157822</v>
+        <v>23595.338153209381</v>
       </c>
       <c r="F64" s="46"/>
       <c r="G64" s="11"/>
@@ -16854,7 +16862,7 @@
         <v>LocalCurrencyDelta1PDH.AUD-XccyDepo-1D</v>
       </c>
       <c r="E65" s="40">
-        <v>55.407800234561478</v>
+        <v>54.840490040963502</v>
       </c>
       <c r="F65" s="46"/>
       <c r="G65" s="11"/>
@@ -16866,7 +16874,7 @@
         <v>LocalCurrencyDelta1PDH.AUD-XccyDepo-TN</v>
       </c>
       <c r="E66" s="40">
-        <v>166.17698997958297</v>
+        <v>54.840490040963502</v>
       </c>
       <c r="F66" s="46"/>
       <c r="G66" s="11"/>
@@ -16902,7 +16910,7 @@
         <v>LocalCurrencyDelta1PDH.AUD-XccyDepo-1M</v>
       </c>
       <c r="E69" s="40">
-        <v>537.12029641829326</v>
+        <v>449.23079431102127</v>
       </c>
       <c r="F69" s="46"/>
       <c r="G69" s="11"/>
@@ -16914,7 +16922,7 @@
         <v>LocalCurrencyDelta1PDH.AUD-XccyDepo-2M</v>
       </c>
       <c r="E70" s="40">
-        <v>773.23057544409824</v>
+        <v>922.21794629478791</v>
       </c>
       <c r="F70" s="46"/>
       <c r="G70" s="11"/>
@@ -16926,7 +16934,7 @@
         <v>LocalCurrencyDelta1PDH.AUD-XccyDepo-3M</v>
       </c>
       <c r="E71" s="40">
-        <v>60.528047743783695</v>
+        <v>61.682949731131032</v>
       </c>
       <c r="F71" s="46"/>
       <c r="G71" s="11"/>
@@ -16938,7 +16946,7 @@
         <v>LocalCurrencyDelta1PDH.AUD-XccySwap-6M</v>
       </c>
       <c r="E72" s="40">
-        <v>195.31358051542273</v>
+        <v>195.31203268501037</v>
       </c>
       <c r="F72" s="46"/>
       <c r="G72" s="11"/>
@@ -16950,7 +16958,7 @@
         <v>LocalCurrencyDelta1PDH.AUD-XccySwap-9M</v>
       </c>
       <c r="E73" s="40">
-        <v>286.54730934649342</v>
+        <v>289.23597624204342</v>
       </c>
       <c r="F73" s="46"/>
       <c r="G73" s="11"/>
@@ -16962,7 +16970,7 @@
         <v>LocalCurrencyDelta1PDH.AUD-XccySwap-1Y</v>
       </c>
       <c r="E74" s="40">
-        <v>1228.810531963069</v>
+        <v>1229.1386350325433</v>
       </c>
       <c r="F74" s="46"/>
       <c r="G74" s="11"/>
@@ -16974,7 +16982,7 @@
         <v>LocalCurrencyDelta1PDH.AUD-XccySwap-2Y</v>
       </c>
       <c r="E75" s="40">
-        <v>3230.0985399148472</v>
+        <v>3224.7301163951161</v>
       </c>
       <c r="F75" s="46"/>
       <c r="G75" s="11"/>
@@ -16986,7 +16994,7 @@
         <v>LocalCurrencyDelta1PDH.AUD-XccySwap-3Y</v>
       </c>
       <c r="E76" s="40">
-        <v>4927.1260219953456</v>
+        <v>4935.791719055328</v>
       </c>
       <c r="F76" s="46"/>
       <c r="G76" s="11"/>
@@ -16998,7 +17006,7 @@
         <v>LocalCurrencyDelta1PDH.AUD-XccySwap-4Y</v>
       </c>
       <c r="E77" s="40">
-        <v>12111.628041456515</v>
+        <v>12129.025800144578</v>
       </c>
       <c r="F77" s="46"/>
       <c r="G77" s="11"/>
@@ -17010,7 +17018,7 @@
         <v>LocalCurrencyDelta1PDH.AUD-XccySwap-5Y</v>
       </c>
       <c r="E78" s="40">
-        <v>24.752817145807548</v>
+        <v>49.291203235891345</v>
       </c>
       <c r="F78" s="46"/>
       <c r="G78" s="11"/>
@@ -17142,7 +17150,7 @@
         <v>LocalCurrencyDelta0PDH.AUD</v>
       </c>
       <c r="E89" s="40">
-        <v>75066.752248296485</v>
+        <v>75066.928439841038</v>
       </c>
       <c r="F89" s="46"/>
       <c r="G89" s="11"/>
@@ -17154,7 +17162,7 @@
         <v>LocalCurrencyDelta0PDH.AUD-Deposit-1D</v>
       </c>
       <c r="E90" s="40">
-        <v>3595.8400525592042</v>
+        <v>3595.8485252907903</v>
       </c>
       <c r="F90" s="46"/>
       <c r="G90" s="11"/>
@@ -17166,7 +17174,7 @@
         <v>LocalCurrencyDelta0PDH.AUD-Deposit-1M</v>
       </c>
       <c r="E91" s="40">
-        <v>3994.3484655105058</v>
+        <v>3994.3579178029736</v>
       </c>
       <c r="F91" s="46"/>
       <c r="G91" s="11"/>
@@ -17178,7 +17186,7 @@
         <v>LocalCurrencyDelta0PDH.AUD-Deposit-2M</v>
       </c>
       <c r="E92" s="40">
-        <v>4212.1849679818924</v>
+        <v>4212.1953395880319</v>
       </c>
       <c r="F92" s="46"/>
       <c r="G92" s="11"/>
@@ -17190,7 +17198,7 @@
         <v>LocalCurrencyDelta0PDH.AUD-Deposit-3M</v>
       </c>
       <c r="E93" s="40">
-        <v>3881.6754312738026</v>
+        <v>3881.684506742808</v>
       </c>
       <c r="F93" s="46"/>
       <c r="G93" s="11"/>
@@ -17202,7 +17210,7 @@
         <v>LocalCurrencyDelta0PDH.AUD-IRFuture-IR-1</v>
       </c>
       <c r="E94" s="40">
-        <v>3793.1239456656813</v>
+        <v>3793.1310265644042</v>
       </c>
       <c r="F94" s="46"/>
       <c r="G94" s="11"/>
@@ -17214,7 +17222,7 @@
         <v>LocalCurrencyDelta0PDH.AUD-IRFuture-IR-2</v>
       </c>
       <c r="E95" s="40">
-        <v>3968.0670550082737</v>
+        <v>3968.0762349608594</v>
       </c>
       <c r="F95" s="46"/>
       <c r="G95" s="11"/>
@@ -17226,7 +17234,7 @@
         <v>LocalCurrencyDelta0PDH.AUD-IRFuture-IR-3</v>
       </c>
       <c r="E96" s="40">
-        <v>3995.7251403376904</v>
+        <v>3995.7343262156905</v>
       </c>
       <c r="F96" s="46"/>
       <c r="G96" s="11"/>
@@ -17238,7 +17246,7 @@
         <v>LocalCurrencyDelta0PDH.AUD-IRFuture-IR-4</v>
       </c>
       <c r="E97" s="40">
-        <v>4030.0786401358391</v>
+        <v>4030.0873122469802</v>
       </c>
       <c r="F97" s="46"/>
       <c r="G97" s="11"/>
@@ -17250,7 +17258,7 @@
         <v>LocalCurrencyDelta0PDH.AUD-IRFuture-IR-5</v>
       </c>
       <c r="E98" s="40">
-        <v>3851.0416899114857</v>
+        <v>3851.0497535189543</v>
       </c>
       <c r="F98" s="46"/>
       <c r="G98" s="11"/>
@@ -17262,7 +17270,7 @@
         <v>LocalCurrencyDelta0PDH.AUD-IRFuture-IR-6</v>
       </c>
       <c r="E99" s="40">
-        <v>3756.0229666575233</v>
+        <v>3756.030921562246</v>
       </c>
       <c r="F99" s="46"/>
       <c r="G99" s="11"/>
@@ -17274,7 +17282,7 @@
         <v>LocalCurrencyDelta0PDH.AUD-IRFuture-IR-7</v>
       </c>
       <c r="E100" s="40">
-        <v>3747.7003201207986</v>
+        <v>3747.708681302744</v>
       </c>
       <c r="F100" s="46"/>
       <c r="G100" s="11"/>
@@ -17286,7 +17294,7 @@
         <v>LocalCurrencyDelta0PDH.AUD-IRFuture-IR-8</v>
       </c>
       <c r="E101" s="40">
-        <v>3776.8265034495339</v>
+        <v>3776.8353049467801</v>
       </c>
       <c r="F101" s="46"/>
       <c r="G101" s="11"/>
@@ -17298,7 +17306,7 @@
         <v>LocalCurrencyDelta0PDH.AUD-IRSwap-3Y</v>
       </c>
       <c r="E102" s="40">
-        <v>1304.7433761208472</v>
+        <v>1304.7498447167532</v>
       </c>
       <c r="F102" s="46"/>
       <c r="G102" s="11"/>
@@ -17310,7 +17318,7 @@
         <v>LocalCurrencyDelta0PDH.AUD-IRSwap-4Y</v>
       </c>
       <c r="E103" s="40">
-        <v>-3811.5919770412429</v>
+        <v>-3811.5993558987943</v>
       </c>
       <c r="F103" s="46"/>
       <c r="G103" s="11"/>
@@ -17322,7 +17330,7 @@
         <v>LocalCurrencyDelta0PDH.AUD-IRSwap-5Y</v>
       </c>
       <c r="E104" s="40">
-        <v>3809.8189787416118</v>
+        <v>3809.8278834067564</v>
       </c>
       <c r="F104" s="46"/>
       <c r="G104" s="11"/>
@@ -17334,7 +17342,7 @@
         <v>LocalCurrencyDelta0PDH.AUD-IRSwap-6Y</v>
       </c>
       <c r="E105" s="40">
-        <v>3880.1638131232885</v>
+        <v>3880.1728881247222</v>
       </c>
       <c r="F105" s="46"/>
       <c r="G105" s="11"/>
@@ -17346,7 +17354,7 @@
         <v>LocalCurrencyDelta0PDH.AUD-IRSwap-7Y</v>
       </c>
       <c r="E106" s="40">
-        <v>3880.1638131232885</v>
+        <v>3880.1728881247222</v>
       </c>
       <c r="F106" s="46"/>
       <c r="G106" s="11"/>
@@ -17358,7 +17366,7 @@
         <v>LocalCurrencyDelta0PDH.AUD-IRSwap-8Y</v>
       </c>
       <c r="E107" s="40">
-        <v>3880.1638131232885</v>
+        <v>3880.1728881247222</v>
       </c>
       <c r="F107" s="46"/>
       <c r="G107" s="11"/>
@@ -17370,7 +17378,7 @@
         <v>LocalCurrencyDelta0PDH.AUD-IRSwap-9Y</v>
       </c>
       <c r="E108" s="40">
-        <v>3880.1638131232885</v>
+        <v>3880.1728881247222</v>
       </c>
       <c r="F108" s="46"/>
       <c r="G108" s="11"/>
@@ -17382,7 +17390,7 @@
         <v>LocalCurrencyDelta0PDH.AUD-IRSwap-10Y</v>
       </c>
       <c r="E109" s="40">
-        <v>3880.1638131232885</v>
+        <v>3880.1728881247222</v>
       </c>
       <c r="F109" s="46"/>
       <c r="G109" s="11"/>
@@ -17394,7 +17402,7 @@
         <v>LocalCurrencyDelta0PDH.AUD-IRSwap-15Y</v>
       </c>
       <c r="E110" s="40">
-        <v>3880.1638131232885</v>
+        <v>3880.1728881247222</v>
       </c>
       <c r="F110" s="46"/>
       <c r="G110" s="11"/>
@@ -17406,7 +17414,7 @@
         <v>LocalCurrencyDelta0PDH.AUD-IRSwap-20Y</v>
       </c>
       <c r="E111" s="40">
-        <v>3880.1638131232885</v>
+        <v>3880.1728881247222</v>
       </c>
       <c r="F111" s="46"/>
       <c r="G111" s="11"/>
@@ -17418,7 +17426,7 @@
         <v>LocalCurrencyNPV.AUD</v>
       </c>
       <c r="E112" s="40">
-        <v>187788271.27496088</v>
+        <v>187788656.49643475</v>
       </c>
       <c r="F112" s="46"/>
       <c r="G112" s="11"/>
@@ -17430,7 +17438,7 @@
         <v>Delta1</v>
       </c>
       <c r="E113" s="40">
-        <v>23323.932596735482</v>
+        <v>23323.994024370015</v>
       </c>
       <c r="F113" s="46"/>
       <c r="G113" s="11"/>
@@ -17442,7 +17450,7 @@
         <v>AccrualFactor</v>
       </c>
       <c r="E114" s="40">
-        <v>22211.572467724363</v>
+        <v>22211.626528595953</v>
       </c>
       <c r="F114" s="46"/>
       <c r="G114" s="11"/>
@@ -17454,7 +17462,7 @@
         <v>FloatingNPV</v>
       </c>
       <c r="E115" s="40">
-        <v>10803014.204259137</v>
+        <v>10803040.389232131</v>
       </c>
       <c r="F115" s="46"/>
       <c r="G115" s="11"/>
